--- a/results.xlsx
+++ b/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,90 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Афанасьев Александр Дмитриевич</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Алгоритмы</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Афанасьев Алеександр Дмитриевич</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Алгоритмы</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Афанасьев Александр Дмитриевич</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Информатика</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-02-14 13:59</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,47 +449,47 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Дата</t>
+          <t>Дата и время</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Афанасьев Адександр Дмитриевич</t>
+          <t>oiwakfhkahf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Программирование</t>
+          <t>Информатика</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-14 13:09</t>
+          <t>14.02.2026 15:06:01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Афанасьев Еор Дмитриевич</t>
+          <t>scAascasdasd</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Программирование</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -505,91 +505,35 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-14 13:22</t>
+          <t>14.02.2026 15:12:16</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Афанасьев Александр Дмитриевич</t>
+          <t>kjsdKJKjdnc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Алгоритмы</t>
+          <t>Информатика</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-02-14 13:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Афанасьев Алеександр Дмитриевич</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Алгоритмы</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2026-02-14 13:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Афанасьев Александр Дмитриевич</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Информатика</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2026-02-14 13:59</t>
+          <t>14.02.2026 15:19:18</t>
         </is>
       </c>
     </row>
